--- a/开发者日志/任务拆分阶段1.xlsx
+++ b/开发者日志/任务拆分阶段1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gameMaker\RoguelikeThreeKingdoms\ThreeKingdomsFierceWarfare\开发者日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4D9DE2-B6B0-4351-91DE-1D338688CEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123EA97B-DF30-4C90-B315-DF2021551CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1485" windowWidth="15210" windowHeight="19395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="1530" windowWidth="25350" windowHeight="19395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
-    <t>光标选中地图块效果</t>
-  </si>
-  <si>
     <t>敌人出现</t>
   </si>
   <si>
@@ -75,14 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修理功能实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位阵亡动画、地图占一个格子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>左下角主将UI、</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,7 +88,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>村庄、山地地图层</t>
+    <t>光标划过地图块效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>村庄、山地角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方单位阵亡动画、
+虽然死了但是地图占一个格子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -173,10 +175,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -457,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -469,114 +474,123 @@
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/开发者日志/任务拆分阶段1.xlsx
+++ b/开发者日志/任务拆分阶段1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gameMaker\RoguelikeThreeKingdoms\ThreeKingdomsFierceWarfare\开发者日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123EA97B-DF30-4C90-B315-DF2021551CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433F5040-9E20-4D61-B864-20552FD7C364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="1530" windowWidth="25350" windowHeight="19395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="bug" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>敌人出现</t>
   </si>
@@ -102,6 +103,26 @@
   <si>
     <t>我方单位阵亡动画、
 虽然死了但是地图占一个格子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动时快速点击鼠标会人物停止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图显示不对，移动到了外面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -197,6 +218,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2252381</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>166404</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>417967</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2617</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56116E5C-FB12-0EE1-5D8E-4B43193F87FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2252381" y="166404"/>
+          <a:ext cx="423571" cy="200404"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -462,134 +532,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="4.25" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1</v>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+    <row r="20" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -597,4 +682,36 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381C3586-3E1A-4DF5-A0A7-57D849EBD284}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="340" zoomScaleNormal="340" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/开发者日志/任务拆分阶段1.xlsx
+++ b/开发者日志/任务拆分阶段1.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gameMaker\RoguelikeThreeKingdoms\ThreeKingdomsFierceWarfare\开发者日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433F5040-9E20-4D61-B864-20552FD7C364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC95B63-3BD3-4B17-9C6A-BF746B76F31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="拆分" sheetId="1" r:id="rId1"/>
     <sheet name="bug" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>敌人出现</t>
   </si>
@@ -40,89 +40,106 @@
     <t>人物可部署范围</t>
   </si>
   <si>
+    <t>行动完置灰ui</t>
+  </si>
+  <si>
+    <t>生命值UI显示</t>
+  </si>
+  <si>
+    <t>山被攻击一次、两次动画</t>
+  </si>
+  <si>
+    <t>村庄被攻击1点血动画、2点血动画</t>
+  </si>
+  <si>
+    <t>回合结束</t>
+  </si>
+  <si>
+    <t>鼠标样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动顺序编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击顺序UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左下角主将UI、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左下角俩武器UI、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左下角兵种UI、单位状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水方块动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光标划过地图块效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>村庄、山地角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动时快速点击鼠标会人物停止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图显示不对，移动到了外面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向右下1格移动不了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人状态机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>攻击动画</t>
-  </si>
-  <si>
-    <t>行动完置灰ui</t>
-  </si>
-  <si>
-    <t>生命值UI显示</t>
-  </si>
-  <si>
-    <t>山被攻击一次、两次动画</t>
-  </si>
-  <si>
-    <t>村庄被攻击1点血动画、2点血动画</t>
-  </si>
-  <si>
-    <t>回合结束</t>
-  </si>
-  <si>
-    <t>敌人状态机、行为树动画</t>
-  </si>
-  <si>
-    <t>鼠标样式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行动顺序编辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击顺序UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左下角主将UI、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左下角俩武器UI、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左下角兵种UI、单位状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水方块动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光标划过地图块效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>村庄、山地角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>休息功能实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方单位阵亡动画、
-虽然死了但是地图占一个格子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动时快速点击鼠标会人物停止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图显示不对，移动到了外面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击完生命值变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虽然死了但是地图占一个格子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方单位阵亡动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击指向箭头UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,150 +549,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.25" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="27.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="1" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -686,10 +720,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381C3586-3E1A-4DF5-A0A7-57D849EBD284}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="340" zoomScaleNormal="340" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="340" zoomScaleNormal="340" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -700,12 +734,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/开发者日志/任务拆分阶段1.xlsx
+++ b/开发者日志/任务拆分阶段1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gameMaker\RoguelikeThreeKingdoms\ThreeKingdomsFierceWarfare\开发者日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC95B63-3BD3-4B17-9C6A-BF746B76F31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6D9FA9-B572-43C7-A84C-5C30BDBDB830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
